--- a/target/classes/testdata/ServiceRequest.xlsx
+++ b/target/classes/testdata/ServiceRequest.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="ServiceRequest" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O12"/>
+  <oleSize ref="A7:E24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
